--- a/resultados/check_worthy_results.xlsx
+++ b/resultados/check_worthy_results.xlsx
@@ -502,7 +502,7 @@
           <t>resultado, projeto, votação, desinformação, funcionou</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>['o tse (tribunal superior eleitoral) não testou a segurança das urnas para as eleições de 2022', 'as vulnerabilidades encontradas no sistema em 2012 ainda não foram corrigidas,', 'diego aranha, professor assistente de segurança de sistemas na universidade de aarhus, na dinamarca, anuncia o projeto você fiscal,', 'o ano de 2014 não é mencionado no vídeo,', 'a gravação foi feita naquela época: a expressão “eleições 2014” aparece aos 35’’ (veja abaixo)', 'aos 1’41’’ do vídeo', 'envolvem o software de votação continuam com limitações importantes de transparência”', 'criado em 2014 com a proposta de fiscalizar o resultado das eleições por meio da análise de fotos dos bus (boletins de urna) enviados por usuários, o você fiscal funcionou durante o pleito daquele ano', 'foi desativado após as eleições de 2016']</t>
         </is>
@@ -534,7 +534,7 @@
           <t>gerais, fatos, fatosf, agência, domingo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>['aos fatosf: compartilhe correntes de mensagens no whatsapp', 'no telegram disseminam informações falsas sobre o', 'esta reportagem foi feita numa colaboração entre agência pública, aos fatos']</t>
         </is>
@@ -566,7 +566,7 @@
           <t>votação, tela, boato, telefone, cuidado</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>['você apertar “confirma” durante a tela “confira seu voto”, todo o voto será anulado', 'circulam online: versão 1: importante ao votar prestar atenção ao digitar vai aparecer escrito confira confira seu voto', 'ao contrário, foi possível ver', 'a tela em questão não tem qualquer relação com anulação', 'org, entre em contato com a gente pelo site, facebook', 'whatsapp no telefone (61) 99458-8494']</t>
         </is>
@@ -598,7 +598,7 @@
           <t>fraude, votação, mencionam, fatos, jornalismo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>['aos fatosf: compartilhe quatro das cinco principais correntes de baixa qualidade (veja aqui a metodologia)', 'circularam em grupos públicos de política no whatsapp no final de semana do primeiro turno mencionam suposta fraude nas urnas — nunca registradas,', 'a implantação do sistema eletrônico de votação no brasil, em 1996', 'esta reportagem foi feita numa colaboração entre agência pública, aos fatos']</t>
         </is>
@@ -630,7 +630,7 @@
           <t>fatos, fatosf, posicionamento, atualizado, jornalismo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>['aos fatosf: compartilhe esta reportagem foi feita numa colaboração entre agência pública, aos fatos', 'durante o vídeo há várias inserções de anúncios']</t>
         </is>
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>seja membro entrar eleições 2022 em 2023, congresso terá políticos com histórico de propagação de desinformação 04.10.2022 - 20h37 arthur h. schiochet, bruno nomura e carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas. é o caso do pastor e fundamentalista religioso magno malta (pl-es), político que já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018 e, agora, volta ao congresso. entre 2017 e 2022, ele foi checado ao menos quatro vezes. tratamento precoce” para covid-19, ineficaz para tratar a doença, e outros conteúdos falsos sobre a pandemia, que até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos. além da desinformação sobre o novo coronavírus, políticos que ocuparam cargo de ministro no governo de jair bolsonaro (pl) também espalharam desinformação e teorias da conspiração sobre a pauta de costumes. damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar que escolas da holanda ensinavam os pais a masturbarem os filhos. além de teorias conspiratórias, ela também protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. ela também já comparou a esquerda ao “diabo” e inflou dados relativos à própria pasta que ocupava no governo bolsonaro. a deputada espalhou conteúdos conspiratórios sobre supostos efeitos danosos das vacinas contra a covid-19, incluindo um vídeo que afirmava, falsamente, que a proteína spike criada pelas vacinas de mrna e vetor viral causava danos ao organismo — uma informação que já foi desmentida inúmeras vezes. ela também ganhou notoriedade por vídeo em que ensinava as pessoas um “truque” para não usar máscaras. dentre elas, um gráfico que apontaria mais votos no ex-presidente donald trump que seu adversário e que a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump. em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt). em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas e informações falsas contra a jornalista vera magalhães. a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta ou indiretamente. em outubro do ano passado, ela publicou um vídeo falsamente alegando que a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência e tecnologia. ela também publicou informações falsas sobre vacina e “tratamento precoce” contra a covid-19. divulgação/portal da câmara dos deputados o político foi um dos deputados que usou o plenário da câmara federal para propagar informações falsas sobre a pandemia, como mostrou uma reportagem publicada pela lupa em dezembro do ano passado. essa informação foi incansavelmente desmentida ao redor do mundo. até o momento, passados quase três anos do primeiro caso de covid-19, não há evidências de que profilaxia medicamentosa previna ou evite a morte pelo sars-cov-2. talíria petrone (psol-rj), grupos antifascistas e a imprensa. eduardo bolsonaro também atacou leis de incentivo à cultura com ataques desinformativos à lei rouanet. na ocasião, foi processado e teve que apagar as mensagens. casos pontuais como vídeos falsos de elogios ao governo supostamente feitos por “esquerdistas” e até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato. giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul. ao longo do ano ano passado, ele declarou, por exemplo, sem provas, que o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu que os hospitais estariam vazios se a população tivesse adotado o tratamento e sugeriu que os críticos aos medicamentos fariam parte de uma conspiração para provocar o maior número possível de mortes com o objetivo de obter vantagens políticas e econômicas. em setembro, por exemplo, o tse determinou que fossem removidas publicações com a informação falsa de que o instituto inteligência de pesquisa e consultoria estratégica (ipec), que conduz pesquisas de intenção de voto, funcionaria no mesmo endereço que o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede e foi checada pela lupa. em janeiro deste ano, um vídeo falso que mostrava o ex-presidente e candidato lula dizendo que estaria “falando com o demônio” e que o demônio estaria “tomando conta dele” — o que não é verdade e foi desmentido pela lupa — foi compartilhado por medeiros. reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos, segundo o tribunal superior eleitoral (tse), foi catalisador de polêmicas desde que se tornou uma das principais vozes do bolsonarismo em minas gerais. em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube. posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior. divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc. anteriormente, a lupa já havia checado desinformações disseminadas pelo político. em maio, viralizou um vídeo de otoni afirmando que peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança. à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos e revisados pela agência nacional de vigilância sanitária (anvisa).</t>
+          <t>seja membro entrar eleições 2022 em 2023, congresso terá políticos com histórico de propagação de desinformação 04.10.2022 - 20h37 arthur h. schiochet, bruno nomura e carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas. é o caso do pastor e fundamentalista religioso magno malta (pl-es), político que já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018 e, agora, volta ao congresso. entre 2017 e 2022, ele foi checado ao menos quatro vezes. tratamento precoce” para covid-19, ineficaz para tratar a doença, e outros conteúdos falsos sobre a pandemia, que até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos. além da desinformação sobre o novo coronavírus, políticos que ocuparam cargo de ministro no governo de jair bolsonaro (pl) também espalharam desinformação e teorias da conspiração sobre a pauta de costumes. damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar que escolas da holanda ensinavam os pais a masturbarem os filhos. além de teorias conspiratórias, ela também protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. ela também já comparou a esquerda ao “diabo” e inflou dados relativos à própria pasta que ocupava no governo bolsonaro. ela também ganhou notoriedade por vídeo em que ensinava as pessoas um “truque” para não usar máscaras. dentre elas, um gráfico que apontaria mais votos no ex-presidente donald trump que seu adversário e que a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump. em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt). em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas e informações falsas contra a jornalista vera magalhães. a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta ou indiretamente. em outubro do ano passado, ela publicou um vídeo falsamente alegando que a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência e tecnologia. ela também publicou informações falsas sobre vacina e “tratamento precoce” contra a covid-19. divulgação/portal da câmara dos deputados o político foi um dos deputados que usou o plenário da câmara federal para propagar informações falsas sobre a pandemia, como mostrou uma reportagem publicada pela lupa em dezembro do ano passado. essa informação foi incansavelmente desmentida ao redor do mundo. até o momento, passados quase três anos do primeiro caso de covid-19, não há evidências de que profilaxia medicamentosa previna ou evite a morte pelo sars-cov-2. talíria petrone (psol-rj), grupos antifascistas e a imprensa. eduardo bolsonaro também atacou leis de incentivo à cultura com ataques desinformativos à lei rouanet. na ocasião, foi processado e teve que apagar as mensagens. casos pontuais como vídeos falsos de elogios ao governo supostamente feitos por “esquerdistas” e até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato. giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul. ao longo do ano ano passado, ele declarou, por exemplo, sem provas, que o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu que os hospitais estariam vazios se a população tivesse adotado o tratamento e sugeriu que os críticos aos medicamentos fariam parte de uma conspiração para provocar o maior número possível de mortes com o objetivo de obter vantagens políticas e econômicas. em setembro, por exemplo, o tse determinou que fossem removidas publicações com a informação falsa de que o instituto inteligência de pesquisa e consultoria estratégica (ipec), que conduz pesquisas de intenção de voto, funcionaria no mesmo endereço que o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede e foi checada pela lupa. em janeiro deste ano, um vídeo falso que mostrava o ex-presidente e candidato lula dizendo que estaria “falando com o demônio” e que o demônio estaria “tomando conta dele” — o que não é verdade e foi desmentido pela lupa — foi compartilhado por medeiros. reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos, segundo o tribunal superior eleitoral (tse), foi catalisador de polêmicas desde que se tornou uma das principais vozes do bolsonarismo em minas gerais. em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube. posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior. divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc. anteriormente, a lupa já havia checado desinformações disseminadas pelo político. em maio, viralizou um vídeo de otoni afirmando que peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança. uma reportagem de fevereiro da lupa mostrou que o deputado afirmou falsamente que os efeitos colaterais da vacina contra a covid-19 seriam desconhecidos, chamando-a de “experimental”. à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos e revisados pela agência nacional de vigilância sanitária (anvisa).</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -662,9 +662,9 @@
           <t>2023, 2022, conteúdos, conspiração, congresso</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas', 'já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018', '2022, ele foi checado ao menos quatro vezes', 'tratamento precoce” para covid-19, ineficaz para tratar a doença,', 'até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos', 'ocuparam cargo de ministro no governo de jair bolsonaro (pl)', 'damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar', 'escolas da holanda ensinavam os pais a masturbarem os filhos', 'protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'a deputada espalhou conteúdos conspiratórios sobre supostos efeitos danosos das vacinas contra a covid-19, incluindo um vídeo', 'a proteína spike criada pelas vacinas de mrna', 'vetor viral causava danos ao organismo — uma informação', 'ganhou notoriedade por vídeo em', 'a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump', 'em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt)', 'em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas', 'a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta', 'em outubro do ano passado, ela publicou um vídeo falsamente alegando', 'a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência', 'publicou informações falsas sobre vacina', 'divulgação/portal da câmara dos deputados o político foi um dos deputados', 'usou o plenário da câmara federal para propagar informações falsas sobre a pandemia,', 'mostrou uma reportagem publicada pela lupa em dezembro do ano passado', 'essa informação foi incansavelmente desmentida ao redor do mundo', 'até o momento, passados quase três anos do primeiro', 'de covid-19, não há evidências de', 'na ocasião, foi processado', 'até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato', 'giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul', 'ao longo do ano ano passado, ele declarou, por exemplo, sem provas,', 'o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu', 'em setembro, por exemplo, o tse determinou', 'o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede', 'em janeiro deste ano, um vídeo falso', 'mostrava o ex-presidente', 'reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos,', 'em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube', 'posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior', 'divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc', 'anteriormente, a lupa já havia checado desinformações disseminadas pelo político', 'em maio, viralizou um vídeo de otoni afirmando', 'peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança', 'à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos', 'revisados pela agência nacional de vigilância sanitária (anvisa)']</t>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>['carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas', 'já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018', '2022, ele foi checado ao menos quatro vezes', 'tratamento precoce” para covid-19, ineficaz para tratar a doença,', 'até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos', 'ocuparam cargo de ministro no governo de jair bolsonaro (pl)', 'damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar', 'escolas da holanda ensinavam os pais a masturbarem os filhos', 'protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'ganhou notoriedade por vídeo em', 'a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump', 'em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt)', 'em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas', 'a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta', 'em outubro do ano passado, ela publicou um vídeo falsamente alegando', 'a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência', 'publicou informações falsas sobre vacina', 'divulgação/portal da câmara dos deputados o político foi um dos deputados', 'usou o plenário da câmara federal para propagar informações falsas sobre a pandemia,', 'mostrou uma reportagem publicada pela lupa em dezembro do ano passado', 'essa informação foi incansavelmente desmentida ao redor do mundo', 'até o momento, passados quase três anos do primeiro', 'de covid-19, não há evidências de', 'na ocasião, foi processado', 'até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato', 'giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul', 'ao longo do ano ano passado, ele declarou, por exemplo, sem provas,', 'o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu', 'em setembro, por exemplo, o tse determinou', 'o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede', 'em janeiro deste ano, um vídeo falso', 'mostrava o ex-presidente', 'reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos,', 'em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube', 'posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior', 'divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc', 'anteriormente, a lupa já havia checado desinformações disseminadas pelo político', 'em maio, viralizou um vídeo de otoni afirmando', 'peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança', 'uma reportagem de fevereiro da lupa mostrou', 'os efeitos colaterais da vacina contra a covid-19 seriam desconhecidos, chamando-a de “experimental”', 'à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos', 'revisados pela agência nacional de vigilância sanitária (anvisa)']</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>seja membro entrar eleições 2022 em 2023, congresso terá políticos com histórico de propagação de desinformação 04.10.2022 - 20h37 arthur h. schiochet, bruno nomura e carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas. é o caso do pastor e fundamentalista religioso magno malta (pl-es), político que já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018 e, agora, volta ao congresso. entre 2017 e 2022, ele foi checado ao menos quatro vezes. tratamento precoce” para covid-19, ineficaz para tratar a doença, e outros conteúdos falsos sobre a pandemia, que até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos. além da desinformação sobre o novo coronavírus, políticos que ocuparam cargo de ministro no governo de jair bolsonaro (pl) também espalharam desinformação e teorias da conspiração sobre a pauta de costumes. damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar que escolas da holanda ensinavam os pais a masturbarem os filhos. além de teorias conspiratórias, ela também protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. ela também já comparou a esquerda ao “diabo” e inflou dados relativos à própria pasta que ocupava no governo bolsonaro. a deputada espalhou conteúdos conspiratórios sobre supostos efeitos danosos das vacinas contra a covid-19, incluindo um vídeo que afirmava, falsamente, que a proteína spike criada pelas vacinas de mrna e vetor viral causava danos ao organismo — uma informação que já foi desmentida inúmeras vezes. ela também ganhou notoriedade por vídeo em que ensinava as pessoas um “truque” para não usar máscaras. dentre elas, um gráfico que apontaria mais votos no ex-presidente donald trump que seu adversário e que a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump. em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt). em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas e informações falsas contra a jornalista vera magalhães. a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta ou indiretamente. em outubro do ano passado, ela publicou um vídeo falsamente alegando que a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência e tecnologia. ela também publicou informações falsas sobre vacina e “tratamento precoce” contra a covid-19. divulgação/portal da câmara dos deputados o político foi um dos deputados que usou o plenário da câmara federal para propagar informações falsas sobre a pandemia, como mostrou uma reportagem publicada pela lupa em dezembro do ano passado. essa informação foi incansavelmente desmentida ao redor do mundo. até o momento, passados quase três anos do primeiro caso de covid-19, não há evidências de que profilaxia medicamentosa previna ou evite a morte pelo sars-cov-2. talíria petrone (psol-rj), grupos antifascistas e a imprensa. eduardo bolsonaro também atacou leis de incentivo à cultura com ataques desinformativos à lei rouanet. na ocasião, foi processado e teve que apagar as mensagens. casos pontuais como vídeos falsos de elogios ao governo supostamente feitos por “esquerdistas” e até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato. giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul. ao longo do ano ano passado, ele declarou, por exemplo, sem provas, que o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu que os hospitais estariam vazios se a população tivesse adotado o tratamento e sugeriu que os críticos aos medicamentos fariam parte de uma conspiração para provocar o maior número possível de mortes com o objetivo de obter vantagens políticas e econômicas. em setembro, por exemplo, o tse determinou que fossem removidas publicações com a informação falsa de que o instituto inteligência de pesquisa e consultoria estratégica (ipec), que conduz pesquisas de intenção de voto, funcionaria no mesmo endereço que o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede e foi checada pela lupa. em janeiro deste ano, um vídeo falso que mostrava o ex-presidente e candidato lula dizendo que estaria “falando com o demônio” e que o demônio estaria “tomando conta dele” — o que não é verdade e foi desmentido pela lupa — foi compartilhado por medeiros. reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos, segundo o tribunal superior eleitoral (tse), foi catalisador de polêmicas desde que se tornou uma das principais vozes do bolsonarismo em minas gerais. em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube. posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior. divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc. anteriormente, a lupa já havia checado desinformações disseminadas pelo político. em maio, viralizou um vídeo de otoni afirmando que peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança. à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos e revisados pela agência nacional de vigilância sanitária (anvisa).</t>
+          <t>seja membro entrar eleições 2022 em 2023, congresso terá políticos com histórico de propagação de desinformação 04.10.2022 - 20h37 arthur h. schiochet, bruno nomura e carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas. é o caso do pastor e fundamentalista religioso magno malta (pl-es), político que já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018 e, agora, volta ao congresso. entre 2017 e 2022, ele foi checado ao menos quatro vezes. tratamento precoce” para covid-19, ineficaz para tratar a doença, e outros conteúdos falsos sobre a pandemia, que até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos. além da desinformação sobre o novo coronavírus, políticos que ocuparam cargo de ministro no governo de jair bolsonaro (pl) também espalharam desinformação e teorias da conspiração sobre a pauta de costumes. damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar que escolas da holanda ensinavam os pais a masturbarem os filhos. além de teorias conspiratórias, ela também protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. ela também já comparou a esquerda ao “diabo” e inflou dados relativos à própria pasta que ocupava no governo bolsonaro. ela também ganhou notoriedade por vídeo em que ensinava as pessoas um “truque” para não usar máscaras. dentre elas, um gráfico que apontaria mais votos no ex-presidente donald trump que seu adversário e que a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump. em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt). em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas e informações falsas contra a jornalista vera magalhães. a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta ou indiretamente. em outubro do ano passado, ela publicou um vídeo falsamente alegando que a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência e tecnologia. ela também publicou informações falsas sobre vacina e “tratamento precoce” contra a covid-19. divulgação/portal da câmara dos deputados o político foi um dos deputados que usou o plenário da câmara federal para propagar informações falsas sobre a pandemia, como mostrou uma reportagem publicada pela lupa em dezembro do ano passado. essa informação foi incansavelmente desmentida ao redor do mundo. até o momento, passados quase três anos do primeiro caso de covid-19, não há evidências de que profilaxia medicamentosa previna ou evite a morte pelo sars-cov-2. talíria petrone (psol-rj), grupos antifascistas e a imprensa. eduardo bolsonaro também atacou leis de incentivo à cultura com ataques desinformativos à lei rouanet. na ocasião, foi processado e teve que apagar as mensagens. casos pontuais como vídeos falsos de elogios ao governo supostamente feitos por “esquerdistas” e até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato. giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul. ao longo do ano ano passado, ele declarou, por exemplo, sem provas, que o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu que os hospitais estariam vazios se a população tivesse adotado o tratamento e sugeriu que os críticos aos medicamentos fariam parte de uma conspiração para provocar o maior número possível de mortes com o objetivo de obter vantagens políticas e econômicas. em setembro, por exemplo, o tse determinou que fossem removidas publicações com a informação falsa de que o instituto inteligência de pesquisa e consultoria estratégica (ipec), que conduz pesquisas de intenção de voto, funcionaria no mesmo endereço que o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede e foi checada pela lupa. em janeiro deste ano, um vídeo falso que mostrava o ex-presidente e candidato lula dizendo que estaria “falando com o demônio” e que o demônio estaria “tomando conta dele” — o que não é verdade e foi desmentido pela lupa — foi compartilhado por medeiros. reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos, segundo o tribunal superior eleitoral (tse), foi catalisador de polêmicas desde que se tornou uma das principais vozes do bolsonarismo em minas gerais. em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube. posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior. divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc. anteriormente, a lupa já havia checado desinformações disseminadas pelo político. em maio, viralizou um vídeo de otoni afirmando que peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança. uma reportagem de fevereiro da lupa mostrou que o deputado afirmou falsamente que os efeitos colaterais da vacina contra a covid-19 seriam desconhecidos, chamando-a de “experimental”. à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos e revisados pela agência nacional de vigilância sanitária (anvisa).</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -694,9 +694,9 @@
           <t>2023, 2022, conteúdos, conspiração, congresso</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas', 'já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018', '2022, ele foi checado ao menos quatro vezes', 'tratamento precoce” para covid-19, ineficaz para tratar a doença,', 'até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos', 'ocuparam cargo de ministro no governo de jair bolsonaro (pl)', 'damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar', 'escolas da holanda ensinavam os pais a masturbarem os filhos', 'protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'a deputada espalhou conteúdos conspiratórios sobre supostos efeitos danosos das vacinas contra a covid-19, incluindo um vídeo', 'a proteína spike criada pelas vacinas de mrna', 'vetor viral causava danos ao organismo — uma informação', 'ganhou notoriedade por vídeo em', 'a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump', 'em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt)', 'em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas', 'a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta', 'em outubro do ano passado, ela publicou um vídeo falsamente alegando', 'a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência', 'publicou informações falsas sobre vacina', 'divulgação/portal da câmara dos deputados o político foi um dos deputados', 'usou o plenário da câmara federal para propagar informações falsas sobre a pandemia,', 'mostrou uma reportagem publicada pela lupa em dezembro do ano passado', 'essa informação foi incansavelmente desmentida ao redor do mundo', 'até o momento, passados quase três anos do primeiro', 'de covid-19, não há evidências de', 'na ocasião, foi processado', 'até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato', 'giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul', 'ao longo do ano ano passado, ele declarou, por exemplo, sem provas,', 'o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu', 'em setembro, por exemplo, o tse determinou', 'o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede', 'em janeiro deste ano, um vídeo falso', 'mostrava o ex-presidente', 'reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos,', 'em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube', 'posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior', 'divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc', 'anteriormente, a lupa já havia checado desinformações disseminadas pelo político', 'em maio, viralizou um vídeo de otoni afirmando', 'peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança', 'à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos', 'revisados pela agência nacional de vigilância sanitária (anvisa)']</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>['carol macário rio de janeiro - rj copiado! o congresso nacional será ocupado a partir de 2023 por políticos com longo histórico de propagação de informações falsas', 'já teve dois mandatos de oito anos cada, perdeu a reeleição em 2018', '2022, ele foi checado ao menos quatro vezes', 'tratamento precoce” para covid-19, ineficaz para tratar a doença,', 'até o momento deixou 686,3 mil mortos, foram os assuntos mais checados desses políticos', 'ocuparam cargo de ministro no governo de jair bolsonaro (pl)', 'damares alves (republicanos-df), por exemplo, eleita senadora pelo distrito federal, chegou a citar', 'escolas da holanda ensinavam os pais a masturbarem os filhos', 'protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'ganhou notoriedade por vídeo em', 'a empresa dominion, responsável por produzir sistemas eletrônicos de votação, teria excluído da apuração 2,7 milhões de votos para trump', 'em agosto deste ano, por exemplo, o tribunal superior eleitoral (tse) pediu a remoção de publicações das redes sociais sobre falsa fraude no qr code de títulos de eleitores para favorecer o candidato luiz inácio lula da silva (pt)', 'em setembro, a justiça de são paulo obrigou a política, reeleita para mais quatro anos na câmara, a remover posts no twitter com ofensas', 'a lupa verificou conteúdos da deputada em, pelo menos, quatro ocasiões, direta', 'em outubro do ano passado, ela publicou um vídeo falsamente alegando', 'a primeira bateria de nióbio do mundo era fruto de um trabalho do ministério da ciência', 'publicou informações falsas sobre vacina', 'divulgação/portal da câmara dos deputados o político foi um dos deputados', 'usou o plenário da câmara federal para propagar informações falsas sobre a pandemia,', 'mostrou uma reportagem publicada pela lupa em dezembro do ano passado', 'essa informação foi incansavelmente desmentida ao redor do mundo', 'até o momento, passados quase três anos do primeiro', 'de covid-19, não há evidências de', 'na ocasião, foi processado', 'até traduções erradas foram divulgadas por eduardo bolsonaro durante seu último mandato', 'giovani cherini (pl-rs) giovanni cherini reeleito deputado federal pelo rio grande do sul', 'ao longo do ano ano passado, ele declarou, por exemplo, sem provas,', 'o “kit covid” levaria a suposta uma taxa de sobrevivência próxima a 100%, garantiu', 'em setembro, por exemplo, o tse determinou', 'o instituto lula — essa informação, disseminada pela primeira vez pelo deputado recém-eleito, não procede', 'em janeiro deste ano, um vídeo falso', 'mostrava o ex-presidente', 'reprodução/instagram o deputado mais votado no brasil, com 1,4 milhão de votos,', 'em uma delas, foi investigado pelo ministério público após expor uma aluna trans em um vídeo em seu canal do youtube', 'posteriormente, ele admitiu ter recebido ao menos uma dose do imunizante para poder viajar ao exterior', 'divulgação/portal da câmara dos deputados investigado no inquérito das fake news no stf, otoni de paula esteve entre os condenados em julho a remover de seus perfis conteúdos falsos associando o partido dos trabalhadores (pt) à facção criminosa pcc', 'anteriormente, a lupa já havia checado desinformações disseminadas pelo político', 'em maio, viralizou um vídeo de otoni afirmando', 'peritos da polícia federal teriam demonstrado a inconfiabilidade das urnas eletrônicas ao detectarem diversas falhas de segurança', 'uma reportagem de fevereiro da lupa mostrou', 'os efeitos colaterais da vacina contra a covid-19 seriam desconhecidos, chamando-a de “experimental”', 'à época, os ensaios clínicos de todos os imunizantes já haviam sido concluídos', 'revisados pela agência nacional de vigilância sanitária (anvisa)']</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>seja membro entrar eleições 2022 bolsonaristas recém-eleitos ajustam estratégia para seguir desinformando nas redes sociais 21.10.2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno, mas se valendo de uma nova estratégia. em vez de informações explicitamente falsas, eles têm apostado em posts e vídeos baseados em associações subjetivas e enganosas ou distorções que escapam às metodologias de checagem e levam leitores menos atentos a conclusões equivocadas sobre fatos — como a segurança das urnas. a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp), e dos youtubers nikolas ferreira (pl-mg) e gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal. ao evocar pautas de costumes e crenças enraizadas, principalmente entre eleitores conservadores e cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo e às facções criminosas, entre outros pontos. é o caso de um vídeo de damares alves, ex-ministra da mulher, família e direitos humanos e eleita senadora pelo distrito federal, publicado no dia 10 de outubro. na sequência, pergunta “por que tanto ódio aos cristãos?", associando as ameaças que recebeu a uma suposta perseguição religiosa. essa publicação teve pelo menos 4,5 milhões de visualizações no facebook e no instagram. a repercussão desse e outros conteúdos similares feitos pela ex-ministra foi mapeada também num relatório feito pela casa galileia, que monitora conteúdos publicados em cerca de 400 canais e perfis evangélicos, tanto da direita quanto da esquerda. já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter que achava “estranho” o fato de ele, o governador romeu zema (novo-mg) e o empresário e senador eleito cleitinho azevedo (psc-mg), apoiadores de jair bolsonaro (pl), estarem à frente na contagem dos votos enquanto luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas. o jeito como se aborda um determinado assunto, ou como se distorce uma informação e faz conectar com uma crença muito enraizada do público, leva para um lugar em que fica difícil cravar o que é verdade ou mentira, porque a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito e tecnologia na internet. especialistas ouvidos pela lupa alertam que as declarações com informações distorcidas por esses políticos, que já ocupavam papéis de influenciadores e tiveram ainda mais alcance depois de eleitos, ficam num espaço que teóricos chamam de “zona cinzenta” da desinformação. “ nessa linha, dialoga com as formas como as pessoas se relacionam com determinado tema. vemos conteúdos ligados a crenças e medos muito enraizados. a pastora já tem histórico de disseminar teorias conspiratórias e infundadas. damares também já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. nikolas ferreira o youtuber e empresário nikolas ferreira tem uma atuação mais forte no twitter e suas publicações dialogam especialmente com jovens cristãos. o jovem protagonizou um bate boca com o também youtuber e influenciador felipe neto. a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia. no dia 9 de outubro, ela repostou o vídeo em que a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças” e associou as atrocidades narradas pela senadora eleita, sem provas, aos partidos de esquerda. zambelli escreveu que “estupros de recém nascidos e outras imundícies patrocinadas pela esquerda e acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal e stf são praticadas todos os dias contra as crianças e contra a população brasileira”. a parlamentar reeleita também foi autora de uma publicação que insinua a possibilidade de fraude na votação do 1º turno. segundo a deputada, o número de votantes para governadores, deputados e senadores é diferente do número de votantes para presidente da república. ela também afirma que todos os eleitores que votaram em trânsito, optaram por lula — o que aumentaria as suspeitas de fraude. além disso, é impossível saber em quem essas pessoas votaram, visto que o voto é secreto. a deputada foi procurada pela lupa, mas não respondeu até a publicação da reportagem. ele se refere a uma ação movida pela coligação do candidato petista contra 34 perfis que, segundo o partido, são disseminadores assíduos de notícias falsas. a associação de lula a presidiários, ao narcotráfico, à censura e à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana. também afirmou, em vídeo removido das redes, que “a esquerda odeia a pátria”. vale pontuar que, durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas.</t>
+          <t>seja membro entrar eleições 2022 bolsonaristas recém-eleitos ajustam estratégia para seguir desinformando nas redes sociais 21.10.2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno, mas se valendo de uma nova estratégia. em vez de informações explicitamente falsas, eles têm apostado em posts e vídeos baseados em associações subjetivas e enganosas ou distorções que escapam às metodologias de checagem e levam leitores menos atentos a conclusões equivocadas sobre fatos — como a segurança das urnas. a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp), e dos youtubers nikolas ferreira (pl-mg) e gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal. ao evocar pautas de costumes e crenças enraizadas, principalmente entre eleitores conservadores e cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo e às facções criminosas, entre outros pontos. é o caso de um vídeo de damares alves, ex-ministra da mulher, família e direitos humanos e eleita senadora pelo distrito federal, publicado no dia 10 de outubro. na sequência, pergunta “por que tanto ódio aos cristãos?", associando as ameaças que recebeu a uma suposta perseguição religiosa. essa publicação teve pelo menos 4,5 milhões de visualizações no facebook e no instagram. a repercussão desse e outros conteúdos similares feitos pela ex-ministra foi mapeada também num relatório feito pela casa galileia, que monitora conteúdos publicados em cerca de 400 canais e perfis evangélicos, tanto da direita quanto da esquerda. já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter que achava “estranho” o fato de ele, o governador romeu zema (novo-mg) e o empresário e senador eleito cleitinho azevedo (psc-mg), apoiadores de jair bolsonaro (pl), estarem à frente na contagem dos votos enquanto luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas. o jeito como se aborda um determinado assunto, ou como se distorce uma informação e faz conectar com uma crença muito enraizada do público, leva para um lugar em que fica difícil cravar o que é verdade ou mentira, porque a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito e tecnologia na internet. especialistas ouvidos pela lupa alertam que as declarações com informações distorcidas por esses políticos, que já ocupavam papéis de influenciadores e tiveram ainda mais alcance depois de eleitos, ficam num espaço que teóricos chamam de “zona cinzenta” da desinformação. “ nessa linha, dialoga com as formas como as pessoas se relacionam com determinado tema. vemos conteúdos ligados a crenças e medos muito enraizados. a pastora já tem histórico de disseminar teorias conspiratórias e infundadas. damares também já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. o youtuber e empresário nikolas ferreira tem uma atuação mais forte no twitter e suas publicações dialogam especialmente com jovens cristãos. o jovem protagonizou um bate boca com o também youtuber e influenciador felipe neto. a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia. no dia 9 de outubro, ela repostou o vídeo em que a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças” e associou as atrocidades narradas pela senadora eleita, sem provas, aos partidos de esquerda. zambelli escreveu que “estupros de recém nascidos e outras imundícies patrocinadas pela esquerda e acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal e stf são praticadas todos os dias contra as crianças e contra a população brasileira”. a parlamentar reeleita também foi autora de uma publicação que insinua a possibilidade de fraude na votação do 1º turno. segundo a deputada, o número de votantes para governadores, deputados e senadores é diferente do número de votantes para presidente da república. ela também afirma que todos os eleitores que votaram em trânsito, optaram por lula — o que aumentaria as suspeitas de fraude. além disso, é impossível saber em quem essas pessoas votaram, visto que o voto é secreto. a deputada foi procurada pela lupa, mas não respondeu até a publicação da reportagem. ele se refere a uma ação movida pela coligação do candidato petista contra 34 perfis que, segundo o partido, são disseminadores assíduos de notícias falsas. a associação de lula a presidiários, ao narcotráfico, à censura e à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana. também afirmou, em vídeo removido das redes, que “a esquerda odeia a pátria”. vale pontuar que, durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
           <t>eleição, população, votação, bolsonaristas, apuração</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>['2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno,', 'em vez de informações explicitamente falsas, eles têm apostado em posts', 'a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp),', 'gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal', 'cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo', 'eleita senadora pelo distrito federal, publicado no dia 10 de outubro', 'essa publicação teve pelo menos 4,5 milhões de visualizações no facebook', 'outros conteúdos similares feitos pela ex-ministra foi mapeada', 'num relatório feito pela casa galileia,', 'monitora conteúdos publicados em cerca de 400 canais', 'já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter', 'luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas', 'a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito', 'tiveram ainda mais alcance depois de eleitos, ficam num espaço', 'teóricos chamam de “zona cinzenta” da desinformação', 'já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'empresário nikolas ferreira tem uma atuação mais forte no twitter', 'a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia', 'no dia 9 de outubro, ela repostou o vídeo em', 'a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças”', 'acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal', 'foi autora de uma publicação', 'senadores é diferente do número de votantes para presidente da república', 'não respondeu até a publicação da reportagem', 'refere a uma ação movida pela coligação do candidato petista contra 34 perfis', 'à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana', 'afirmou, em vídeo removido das redes,', ', durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas']</t>
         </is>
@@ -758,7 +758,7 @@
           <t>votação, alegação, estão, agência, alegado</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>['um vídeo mostra em tempo real votos computados para o presidente eleito, luiz inácio lula da silva (pt),', 'estão disponíveis no site do tse, mostram o número de eleitores']</t>
         </is>
@@ -790,7 +790,7 @@
           <t>fato, fatos, fatosf, desinformação, lupa</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>['urnas eletrônicas foram substituídas no japão por apresentarem o número 13, correspondente a luiz inácio lula da silva (pt), no lugar do 22, do candidato jair bolsonaro (pl),', 'circulam nas redes sociais (veja aqui)']</t>
         </is>
@@ -822,7 +822,7 @@
           <t>eleição, fraudadas, polícia, operação, policiais</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>['policiais militares apreenderam urnas eletrônicas com votos computados para o ex-presidente', 'candidato do pt ao cargo, luiz inácio lula da silva, antes do início da eleição em serafina corrêa (rs),', 'afirmam publicações nas redes sociais (veja aqui)', 'fotos de uma operação policial realizada na região metropolitana de manaus em 2018 vêm sendo difundidas para alegar', 'a polícia militar apreendeu, em serafina côrrea (rs), urnas eletrônicas “preenchidas” com votos para o ex-presidente', 'além disso, não há registro de qualquer apreensão de urnas fraudadas no município gaúcho de serafina corrêa']</t>
         </is>
@@ -854,7 +854,7 @@
           <t>reeleição, desinformação, fato, computado, estão</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>['a polícia federal encontrou urnas eletrônicas com votos pré-registrados em brasília,', 'diz um apoiador do candidato à reeleição jair bolsonaro (pl) em vídeo', 'circula nas redes (veja aqui)', 'a postagem enganosa conta com ao menos 16', 'estão registrados na seção', 'não há nenhum voto computado']</t>
         </is>
@@ -886,7 +886,7 @@
           <t>eleição, fraudadas, polícia, operação, policiais</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>['policiais militares apreenderam urnas eletrônicas com votos computados para o ex-presidente', 'candidato do pt ao cargo, luiz inácio lula da silva, antes do início da eleição em serafina corrêa (rs),', 'afirmam publicações nas redes sociais (veja aqui)', 'fotos de uma operação policial realizada na região metropolitana de manaus em 2018 vêm sendo difundidas para alegar', 'a polícia militar apreendeu, em serafina côrrea (rs), urnas eletrônicas “preenchidas” com votos para o ex-presidente', 'além disso, não há registro de qualquer apreensão de urnas fraudadas no município gaúcho de serafina corrêa']</t>
         </is>
@@ -918,7 +918,7 @@
           <t>eleição, estão, proteção, agência, presidente</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>['candidato ao cargo pelo pt, luiz inácio lula da silva, viralizam nas redes sociais', 'a urna eletrônica possui mecanismos de proteção para impedir', 'esta reportagem foi feita numa colaboração entre agência pública, aos fatos']</t>
         </is>
@@ -950,7 +950,7 @@
           <t>conteúdo, 2022, remoção, brasília, atualizado</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>['por aos fatos 02/10/2022 13h31 atualizado 02/10/2022 circula nas redes sociais um vídeo', 'a polícia federal (pf) encontrou urnas eletrônicas com votos registrados antes do início das eleições 2022, em brasília', 'dirigir à urna eletrônica para votar em cada uma das seções eleitorais, o presidente da mesa receptora de votos, na presença dos mesários', 'fiscais de partidos políticos, emite o relatório da zerésima', 'voto é anulado', "urna exibe 'confira seu voto' em 2022, o tribunal superior eleitoral incorporou às urnas eletrônicas um", 'a justiça eleitoral ordenou a remoção do conteúdo das redes sociais, bloqueou o perfil de marçal no instagram,', '#fake no debate da globo entre os candidatos à prefeitura do recife dani portela (psol), daniel coelho (psd), gilson machado (pl)', 'joão campos (psb) participaram do último encontro antes do 1° turno das eleições 2024']</t>
         </is>
@@ -982,7 +982,7 @@
           <t>fraude, votação, mencionam, fatos, jornalismo</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>['aos fatosf: compartilhe quatro das cinco principais correntes de baixa qualidade (veja aqui a metodologia)', 'circularam em grupos públicos de política no whatsapp no final de semana do primeiro turno mencionam suposta fraude nas urnas — nunca registradas,', 'a implantação do sistema eletrônico de votação no brasil, em 1996', 'esta reportagem foi feita numa colaboração entre agência pública, aos fatos']</t>
         </is>
@@ -1014,7 +1014,7 @@
           <t>fraude, votação, informação, declaração, diferente</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>['boato – durante a apuração das eleições, hackers russos descobriram fraude das urnas eletrônicas, exército foi avisado', 'evitou vitória de lula no 1º turno', 'além de citar a suposta fraude dos “12%”, a mensagem aponta', 'candidatos apoiados pelo presidente com grande votação', 'não conseguiu o mesmo percentual, então óbvio', 'tu viu a declaração do careca mesmo depois da da votação?', 'nos outros casos recentes de denúncias virais, o áudio em questão', 'espalhou com todas as forças na internet', 'a “virada” de lula tem um motivo claro: os estados da região nordeste nos quais lula (', ', tradicionalmente, demoram mais para entregar a totalização de votos', ', vamos combinar, não faz nenhum sentido), o próprio tse descartou a informação: “não é verdade', 'vamos pegar outro exemplo: no distrito federal, bolsonaro teve 51,65% dos votos', 'resumindo: não é verdade', 'hackers russos descobriram uma fraude nas urnas eletrônicas, avisaram o exército', 'evitaram a vitória de lula no primeiro turno', 'org, entre em contato com a gente pelo site, facebook', 'whatsapp no telefone (61) 99458-8494']</t>
         </is>
@@ -1046,7 +1046,7 @@
           <t>boato, boatos, informação, fraude, beneficiado</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>['boato – o exército finalmente descobriu a fraude nas urnas eletrônicas', 'o exército resolveu pedir o código-fonte das urnas eletrônicas', 'ibaneis rocha, apoiado por ele, teve 50,27%', 'há casos em', 'o governador apoiado por bolsonaro teve mais votos do', 'para a surpresa de zero pessoas, nada encontrou de irregularidade', 'o exército descobriu uma fraude por conta de um “voto de rebanho” (seja lá o', 'pediu o código-fonte das urnas ao tse por conta disso']</t>
         </is>
@@ -1078,7 +1078,7 @@
           <t>eleição, são, seriedade, atualizado, engraçado</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>['por roney domingos, g1 05/10/2022 16h57 atualizado 26/12/2022 circula pelas redes sociais um vídeo em', 'uma mulher mostra boletins de urna jogados na rua em curitiba, no paraná', 'os voto não foram computados no primeiro turno', 'os votos aqui foram computados', ', esses extratos ficam acessíveis a um grande número de pessoas', 'rogério correia (pt) participaram do último encontro antes do 1° turno das eleições 2024']</t>
         </is>
@@ -1110,7 +1110,7 @@
           <t>verificação, eleição, intimado, gerais, como</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>['uma seção eleitoral em sete lagoas (mg) tenha registrado 40 votos a mais do', 'compareceram à eleição no último domingo (2),', 'circula nas redes sociais (veja aqui)', 'o tre-mg (tribunal regional eleitoral de minas gerais) afirmou', 'o número de eleitores da seção é o mesmo divulgado no site de resultados', ', posteriormente, gravou um novo vídeo pedindo desculpas', '“talvez minha contagem estivesse equivocada”']</t>
         </is>
@@ -1142,7 +1142,7 @@
           <t>eleição, publicidade, desinformação, estadão, humanidades</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>['publicidade a disputa eleitoral nas redes sociais publicidade o mês de outubro já registrou nas redes sociais picos de disseminação de conteúdos sobre supostas fraudes na eleição', 'publicidade levantamento feito a pedido do estadão pelo laboratório de humanidades digitais da universidade federal da bahia (labhd/ufba), em parceria com a universidade federal de santa catarina (ufsc)', 'º de outubro até 23h59 de anteontem, foram 12', '619 mensagens no telegram', 'de acordo com a corte, o teste solicitado por militares, realizado no dia 2, com 2', '044 eleitores, registrou fielmente os votos depositados', 'eu quero a extrema direita do meu lado", diz um usuário', '" vamos agir, população brasileira", diz a postagem']</t>
         </is>
@@ -1174,7 +1174,7 @@
           <t>verificação, especulado, como, reunião, segundo</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>['circula nas redes sociais', 'turno das eleições (veja aqui)', 'turno em razão de uma intervenção militar com base no artigo 142 da constituição']</t>
         </is>
@@ -1206,7 +1206,7 @@
           <t>trânsito, verificação, fatos, fraude, fatosf</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>['sugerem publicações nas redes sociais (veja aqui', 'explicado pelo tre-ap (tribunal regional eleitoral do amapá), na seção 824 da zona eleitoral 2 de macapá,', 'é a citada no vídeo, 125 eleitores estavam aptos a votar em todos os cargos', 'encerrou em 18 de agosto']</t>
         </is>
@@ -1238,7 +1238,7 @@
           <t>fiscalização, fraude, fraudes, auditoria, informação</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>['boato – militares realizam fiscalização em apuração paralela, identificam fraude nas urnas', 'a história, bolsonaro não teria permitido a divulgação do resultado,', 'a informação viralizou nas redes sociais, em especial, no facebook', 'causou um verdadeiro burburinho na internet', 'ao final das eleições, o ministério da defesa entregou o resultado da auditoria das urnas eletrônicas ao presidente jair bolsonaro', 'militares teria identificado fraudes nas urnas eletrônicas em apuração paralela', 'o tse não estaria aprovando a fiscalização das forças armadas é falsa! ps: esse artigo é uma sugestão de leitores do boatos']</t>
         </is>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>seja membro entrar eleições 2022 bolsonaristas recém-eleitos ajustam estratégia para seguir desinformando nas redes sociais 21.10.2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno, mas se valendo de uma nova estratégia. em vez de informações explicitamente falsas, eles têm apostado em posts e vídeos baseados em associações subjetivas e enganosas ou distorções que escapam às metodologias de checagem e levam leitores menos atentos a conclusões equivocadas sobre fatos — como a segurança das urnas. a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp), e dos youtubers nikolas ferreira (pl-mg) e gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal. ao evocar pautas de costumes e crenças enraizadas, principalmente entre eleitores conservadores e cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo e às facções criminosas, entre outros pontos. é o caso de um vídeo de damares alves, ex-ministra da mulher, família e direitos humanos e eleita senadora pelo distrito federal, publicado no dia 10 de outubro. na sequência, pergunta “por que tanto ódio aos cristãos?", associando as ameaças que recebeu a uma suposta perseguição religiosa. essa publicação teve pelo menos 4,5 milhões de visualizações no facebook e no instagram. a repercussão desse e outros conteúdos similares feitos pela ex-ministra foi mapeada também num relatório feito pela casa galileia, que monitora conteúdos publicados em cerca de 400 canais e perfis evangélicos, tanto da direita quanto da esquerda. já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter que achava “estranho” o fato de ele, o governador romeu zema (novo-mg) e o empresário e senador eleito cleitinho azevedo (psc-mg), apoiadores de jair bolsonaro (pl), estarem à frente na contagem dos votos enquanto luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas. o jeito como se aborda um determinado assunto, ou como se distorce uma informação e faz conectar com uma crença muito enraizada do público, leva para um lugar em que fica difícil cravar o que é verdade ou mentira, porque a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito e tecnologia na internet. especialistas ouvidos pela lupa alertam que as declarações com informações distorcidas por esses políticos, que já ocupavam papéis de influenciadores e tiveram ainda mais alcance depois de eleitos, ficam num espaço que teóricos chamam de “zona cinzenta” da desinformação. “ nessa linha, dialoga com as formas como as pessoas se relacionam com determinado tema. vemos conteúdos ligados a crenças e medos muito enraizados. a pastora já tem histórico de disseminar teorias conspiratórias e infundadas. damares também já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. nikolas ferreira o youtuber e empresário nikolas ferreira tem uma atuação mais forte no twitter e suas publicações dialogam especialmente com jovens cristãos. o jovem protagonizou um bate boca com o também youtuber e influenciador felipe neto. a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia. no dia 9 de outubro, ela repostou o vídeo em que a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças” e associou as atrocidades narradas pela senadora eleita, sem provas, aos partidos de esquerda. zambelli escreveu que “estupros de recém nascidos e outras imundícies patrocinadas pela esquerda e acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal e stf são praticadas todos os dias contra as crianças e contra a população brasileira”. a parlamentar reeleita também foi autora de uma publicação que insinua a possibilidade de fraude na votação do 1º turno. segundo a deputada, o número de votantes para governadores, deputados e senadores é diferente do número de votantes para presidente da república. ela também afirma que todos os eleitores que votaram em trânsito, optaram por lula — o que aumentaria as suspeitas de fraude. além disso, é impossível saber em quem essas pessoas votaram, visto que o voto é secreto. a deputada foi procurada pela lupa, mas não respondeu até a publicação da reportagem. ele se refere a uma ação movida pela coligação do candidato petista contra 34 perfis que, segundo o partido, são disseminadores assíduos de notícias falsas. a associação de lula a presidiários, ao narcotráfico, à censura e à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana. também afirmou, em vídeo removido das redes, que “a esquerda odeia a pátria”. vale pontuar que, durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas.</t>
+          <t>seja membro entrar eleições 2022 bolsonaristas recém-eleitos ajustam estratégia para seguir desinformando nas redes sociais 21.10.2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno, mas se valendo de uma nova estratégia. em vez de informações explicitamente falsas, eles têm apostado em posts e vídeos baseados em associações subjetivas e enganosas ou distorções que escapam às metodologias de checagem e levam leitores menos atentos a conclusões equivocadas sobre fatos — como a segurança das urnas. a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp), e dos youtubers nikolas ferreira (pl-mg) e gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal. ao evocar pautas de costumes e crenças enraizadas, principalmente entre eleitores conservadores e cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo e às facções criminosas, entre outros pontos. é o caso de um vídeo de damares alves, ex-ministra da mulher, família e direitos humanos e eleita senadora pelo distrito federal, publicado no dia 10 de outubro. na sequência, pergunta “por que tanto ódio aos cristãos?", associando as ameaças que recebeu a uma suposta perseguição religiosa. essa publicação teve pelo menos 4,5 milhões de visualizações no facebook e no instagram. a repercussão desse e outros conteúdos similares feitos pela ex-ministra foi mapeada também num relatório feito pela casa galileia, que monitora conteúdos publicados em cerca de 400 canais e perfis evangélicos, tanto da direita quanto da esquerda. já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter que achava “estranho” o fato de ele, o governador romeu zema (novo-mg) e o empresário e senador eleito cleitinho azevedo (psc-mg), apoiadores de jair bolsonaro (pl), estarem à frente na contagem dos votos enquanto luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas. o jeito como se aborda um determinado assunto, ou como se distorce uma informação e faz conectar com uma crença muito enraizada do público, leva para um lugar em que fica difícil cravar o que é verdade ou mentira, porque a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito e tecnologia na internet. especialistas ouvidos pela lupa alertam que as declarações com informações distorcidas por esses políticos, que já ocupavam papéis de influenciadores e tiveram ainda mais alcance depois de eleitos, ficam num espaço que teóricos chamam de “zona cinzenta” da desinformação. “ nessa linha, dialoga com as formas como as pessoas se relacionam com determinado tema. vemos conteúdos ligados a crenças e medos muito enraizados. a pastora já tem histórico de disseminar teorias conspiratórias e infundadas. damares também já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas. o youtuber e empresário nikolas ferreira tem uma atuação mais forte no twitter e suas publicações dialogam especialmente com jovens cristãos. o jovem protagonizou um bate boca com o também youtuber e influenciador felipe neto. a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia. no dia 9 de outubro, ela repostou o vídeo em que a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças” e associou as atrocidades narradas pela senadora eleita, sem provas, aos partidos de esquerda. zambelli escreveu que “estupros de recém nascidos e outras imundícies patrocinadas pela esquerda e acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal e stf são praticadas todos os dias contra as crianças e contra a população brasileira”. a parlamentar reeleita também foi autora de uma publicação que insinua a possibilidade de fraude na votação do 1º turno. segundo a deputada, o número de votantes para governadores, deputados e senadores é diferente do número de votantes para presidente da república. ela também afirma que todos os eleitores que votaram em trânsito, optaram por lula — o que aumentaria as suspeitas de fraude. além disso, é impossível saber em quem essas pessoas votaram, visto que o voto é secreto. a deputada foi procurada pela lupa, mas não respondeu até a publicação da reportagem. ele se refere a uma ação movida pela coligação do candidato petista contra 34 perfis que, segundo o partido, são disseminadores assíduos de notícias falsas. a associação de lula a presidiários, ao narcotráfico, à censura e à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana. também afirmou, em vídeo removido das redes, que “a esquerda odeia a pátria”. vale pontuar que, durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
           <t>eleição, população, votação, bolsonaristas, apuração</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>['2022 - 15h07 carol macário rio de janeiro - rj copiado! parlamentares bolsonaristas recém-eleitos mantiveram quente a circulação de conteúdos desinformativos na primeira semana após o primeiro turno,', 'em vez de informações explicitamente falsas, eles têm apostado em posts', 'a lupa fez um levantamento sobre os tipos de postagens nos perfis da senadora eleita damares alves (republicanos-df), da deputada federal reeleita carla zambelli (pl-sp),', 'gustavo gayer (pl-go), eleitos pela primeira vez para a câmara federal', 'cristãos, as publicações associam, sem comprovações, a esquerda à “ameaça das liberdades”, ao satanismo', 'eleita senadora pelo distrito federal, publicado no dia 10 de outubro', 'essa publicação teve pelo menos 4,5 milhões de visualizações no facebook', 'outros conteúdos similares feitos pela ex-ministra foi mapeada', 'num relatório feito pela casa galileia,', 'monitora conteúdos publicados em cerca de 400 canais', 'já no dia da eleição, por exemplo, mesmo tendo sido eleito deputado federal por minas gerais, o youtuber nikolas ferreira postou em seu perfil no twitter', 'luiz inácio lula da silva (pt) ganhava do atual presidente em minas gerais durante a apuração no dia 2 de outubro, numa clara tentativa de questionar o resultado das urnas', 'a linha é muito tênue”, observa heloisa massaro, diretora do internetlab, centro de pesquisa interdisciplinar nas áreas de direito', 'tiveram ainda mais alcance depois de eleitos, ficam num espaço', 'teóricos chamam de “zona cinzenta” da desinformação', 'já protagonizou um polêmico questionamento ao ensino teoria da evolução, de darwin, nas escolas', 'empresário nikolas ferreira tem uma atuação mais forte no twitter', 'a discussão virtual entre os dois apareceu, inclusive, nos monitoramentos feitos por pesquisadores da casa galileia', 'no dia 9 de outubro, ela repostou o vídeo em', 'a ex-ministra de bolsonaro aparece denunciando “crueldades contra crianças”', 'acobertadas pela rede globo, partidos de esquerda, ongs de esquerda, ministério público federal', 'foi autora de uma publicação', 'senadores é diferente do número de votantes para presidente da república', 'não respondeu até a publicação da reportagem', 'refere a uma ação movida pela coligação do candidato petista contra 34 perfis', 'à ideologia de gênero foi usada em mais de uma ocasião pelo influenciador nessa última semana', 'afirmou, em vídeo removido das redes,', ', durante a ditadura militar, cuja existência costuma ser negada pelo presidente jair bolsonaro, jornais costumavam publicar receitas no lugar de reportagens censuradas']</t>
         </is>
@@ -1302,7 +1302,7 @@
           <t>publicidade, votação, realidade, candidato, organização</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>['na verdade, a quantidade de votos', 'cada candidato recebeu só é indicada a partir do boletim de urna (bu), impresso após o encerramento dos trabalhos na seção eleitoral', 'na realidade, o primeiro número (38, depois 39) indica a quantidade de eleitores com biometria cadastrada', 'não tiveram a digital reconhecida', ', precisaram ser liberados para votação pelo ano de nascimento', 'um dia após a divulgação dos resultados do primeiro turno, três observadores internacionais - união interamericana de organismos eleitorais (uniore), organização dos estados americanos (oea)', 'comunidades do países de língua portuguesa (cpl) - emitiram relatórios preliminares']</t>
         </is>
@@ -1334,7 +1334,7 @@
           <t>bahia, prefeitura, adicional, segundo, atualizado</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>['por thaís matos, g1 03/10/2022 14h59 atualizado 03/11/2022 circula nas redes sociais uma imagem', 'a cidade de barreiras, na bahia, teve mais votos para o ex-presidente lula (pt) no primeiro turno das eleições do', 'o seu número de habitantes', 'destes, 85', '497 compareceram às urnas no domingo', 'voto é anulado', "urna exibe 'confira seu voto' em 2022, o tribunal superior eleitoral incorporou às urnas eletrônicas um", '#fake no debate da globo entre os candidatos à prefeitura do recife dani portela (psol), daniel coelho (psd), gilson machado (pl)', 'joão campos (psb) participaram do último encontro antes do 1° turno das eleições 2024']</t>
         </is>
@@ -1358,17 +1358,17 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>publicidade publicidade esta checagem foi produzida por jornalistas da coalizão do comprova. os bus foram colocados em fila e sua computação ocorreu conforme a ordem de chegada. " outro perfil do twitter que compartilhou a publicação disse não ter o contato de flávio peres e explicou que recebeu o vídeo por um grupo do whatsapp. a equipe do comprova procurou matérias jornalísticas de cobertura das eleições e vídeos que transmitiram o resultado do pleito em tempo real para comparar com os números apresentados no vídeo alvo da checagem. publicidade nessa busca, usamos como fonte uma matéria publicada no g1, no dia 2 de outubro de 2022, às 20h49, e uma transmissão ao vivo do resultado das eleições feita pelo canal do youtube prof silvester geografia. o autor do vídeo checado faz um recorte dos dados. ele toma como ponto de partida para sua análise o momento em que 12% das urnas haviam sido apuradas e não o início da apuração em si. o petista tinha 51,18% e bolsonaro 36.73%. depois, a apuração aparece em 12% ou 14%. "devemos sempre atentar sobre qual urna está sendo contada primeiro. no final, não importa quem estava na frente ou atrás. o resultado acontece a partir do total de votos já registrados antes pelo eleitor. em 2021, o órgão desmentiu o boato de que as urnas eletrônicas teriam sido fraudadas nas eleições de 2014. a situação daquela época pode servir de exemplo no cenário atual, uma vez que, na apuração de votos do 1º turno deste ano, o candidato bolsonaro ficou à frente de lula até 70% do total de urnas apuradas. há oito anos, dilma ultrapassou aécio quando a totalização chegou a 88,9%.conforme divulgou o tse na reportagem, naquele ano, técnicos do psdb e do tribunal analisaram a curva de desempenho dos candidatos aécio e dilma ao longo da apuração e constataram que ela demonstrava a concorrência acirrada na eleição de 2014, em que durante muito tempo os votos eram disputados um a um.enquanto os votos apurados vinham predominantemente dos estados das regiões sul e sudeste, onde aécio neves venceu, a apuração indicava a vitória parcial do candidato tucano. mas, à medida em que começaram a ser computados os votos dos estados do norte e do nordeste, onde dilma rousseff obteve ampla vitória, esse placar foi mudando até que se consolidou numa vitória apertada da petista, com uma diferença de apenas 3,28 pontos percentuais.por que investigamos: o comprova investiga conteúdos suspeitos que viralizam nas redes sociais sobre a pandemia, políticas públicas do governo federal e eleições presidenciais. conteúdos falsos ou enganosos que também envolvem o sistema de votação e de totalização podem influenciar na compreensão da realidade e segurança do sistema.o comprova busca colaborar para que o eleitor tenha acesso a conceitos fiéis à verdade e que contribuem para um correto entendimento a respeito do processo de escolha de candidatos e a apuração de votos.publicidadeoutras checagens sobre o tema: a afp, o uol e o site boatos.org verificaram que é falso o conteúdo atribuindo favorecimento a lula na totalização dos votos nas eleições do 1º turno no brasil. imediatamente, antes mesmo de se atingir o percentual de 1% da apuração, lula foi ultrapassado por bolsonaro, que se manteve na primeira posição até o percentual de 70% da totalização. sendo que, no final, a apuração é concluída com o número de votos determinado pelos eleitores para cada candidato. " outro exemplo citado por ele é no caso de a totalização envolver, hipoteticamente, apenas duas cidades: "se a contagem inicia com os votos da primeira cidade e nela todos os eleitores votam em apenas um candidato, só aí já vai estar 100 a 0", exemplifica. tecnologia e apuração para o professor bruno de carvalho albertini, da epusp, o vídeo em questão é falacioso. de fato, qualquer pessoa pode fotografar os boletins de urnas físicos impressos pela urna e totalizar por meios próprios, ou pegar os bus online do tse e fazer o mesmo", explica albertini.</t>
+          <t>publicidade publicidade esta checagem foi produzida por jornalistas da coalizão do comprova. os bus foram colocados em fila e sua computação ocorreu conforme a ordem de chegada. " outro perfil do twitter que compartilhou a publicação disse não ter o contato de flávio peres e explicou que recebeu o vídeo por um grupo do whatsapp. a equipe do comprova procurou matérias jornalísticas de cobertura das eleições e vídeos que transmitiram o resultado do pleito em tempo real para comparar com os números apresentados no vídeo alvo da checagem. apuração é a etapa que ocorre dentro das urnas no encerramento da votação da seção eleitoral e gera como resultado o boletim de urna. o autor do vídeo checado faz um recorte dos dados. o petista tinha 51,18% e bolsonaro 36.73%. depois, a apuração aparece em 12% ou 14%. "devemos sempre atentar sobre qual urna está sendo contada primeiro. no final, não importa quem estava na frente ou atrás. o resultado acontece a partir do total de votos já registrados antes pelo eleitor. em 2021, o órgão desmentiu o boato de que as urnas eletrônicas teriam sido fraudadas nas eleições de 2014. a situação daquela época pode servir de exemplo no cenário atual, uma vez que, na apuração de votos do 1º turno deste ano, o candidato bolsonaro ficou à frente de lula até 70% do total de urnas apuradas. há oito anos, dilma ultrapassou aécio quando a totalização chegou a 88,9%.conforme divulgou o tse na reportagem, naquele ano, técnicos do psdb e do tribunal analisaram a curva de desempenho dos candidatos aécio e dilma ao longo da apuração e constataram que ela demonstrava a concorrência acirrada na eleição de 2014, em que durante muito tempo os votos eram disputados um a um.enquanto os votos apurados vinham predominantemente dos estados das regiões sul e sudeste, onde aécio neves venceu, a apuração indicava a vitória parcial do candidato tucano. mas, à medida em que começaram a ser computados os votos dos estados do norte e do nordeste, onde dilma rousseff obteve ampla vitória, esse placar foi mudando até que se consolidou numa vitória apertada da petista, com uma diferença de apenas 3,28 pontos percentuais.por que investigamos: o comprova investiga conteúdos suspeitos que viralizam nas redes sociais sobre a pandemia, políticas públicas do governo federal e eleições presidenciais. conteúdos falsos ou enganosos que também envolvem o sistema de votação e de totalização podem influenciar na compreensão da realidade e segurança do sistema.o comprova busca colaborar para que o eleitor tenha acesso a conceitos fiéis à verdade e que contribuem para um correto entendimento a respeito do processo de escolha de candidatos e a apuração de votos.publicidadeoutras checagens sobre o tema: a afp, o uol e o site boatos.org verificaram que é falso o conteúdo atribuindo favorecimento a lula na totalização dos votos nas eleições do 1º turno no brasil. imediatamente, antes mesmo de se atingir o percentual de 1% da apuração, lula foi ultrapassado por bolsonaro, que se manteve na primeira posição até o percentual de 70% da totalização. sendo que, no final, a apuração é concluída com o número de votos determinado pelos eleitores para cada candidato. " outro exemplo citado por ele é no caso de a totalização envolver, hipoteticamente, apenas duas cidades: "se a contagem inicia com os votos da primeira cidade e nela todos os eleitores votam em apenas um candidato, só aí já vai estar 100 a 0", exemplifica. tecnologia e apuração para o professor bruno de carvalho albertini, da epusp, o vídeo em questão é falacioso. de fato, qualquer pessoa pode fotografar os boletins de urnas físicos impressos pela urna e totalizar por meios próprios, ou pegar os bus online do tse e fazer o mesmo", explica albertini. apuração e geografia uma apuração do comprova em julho cita uma reportagem do tse em que o tribunal também aborda o andamento da totalização dos votos de acordo com a posição geográfica das cidades.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>publicidade, publicidadeoutras, publicação, resultado, conteúdo</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['publicidade publicidade esta checagem foi produzida por jornalistas da coalizão do comprova', 'sua computação ocorreu', 'compartilhou a publicação disse não ter o contato de flávio peres', 'recebeu o vídeo por um grupo do whatsapp', 'a equipe do comprova procurou matérias jornalísticas de cobertura das eleições', 'transmitiram o resultado do pleito em tempo real para comparar com os números apresentados no vídeo alvo da checagem', 'fonte uma matéria publicada no g1, no dia 2 de outubro de 2022, às 20h49,', 'uma transmissão ao vivo do resultado das eleições feita pelo canal do youtube prof silvester geografia', 'o autor do vídeo checado faz um recorte dos dados', '12% das urnas haviam sido apuradas', 'o petista tinha 51,18%', '73%', 'depois, a apuração aparece em 12%', 'urna está sendo contada primeiro', 'o resultado acontece a partir do total de votos já registrados antes pelo eleitor', 'em 2021, o órgão desmentiu o boato de', 'as urnas eletrônicas teriam sido fraudadas nas eleições de 2014', ', na apuração de votos do 1º turno deste ano, o candidato bolsonaro ficou à frente de lula até 70% do total de urnas apuradas', 'há oito anos, dilma ultrapassou aécio', 'a totalização chegou a 88,9%', 'divulgou o tse na reportagem, naquele ano, técnicos do psdb', 'do tribunal analisaram a curva de desempenho dos candidatos aécio', 'ela demonstrava a concorrência acirrada na eleição de 2014, em', 'durante muito tempo os votos eram disputados um a um', 'os votos apurados vinham predominantemente dos estados das regiões sul', 'sudeste, onde aécio neves venceu, a apuração indicava a vitória parcial do candidato tucano', 'começaram a ser computados os votos dos estados do norte', 'do nordeste, onde dilma rousseff obteve ampla vitória, esse placar foi mudando até', 'consolidou numa vitória apertada da petista, com uma diferença de', '3,28 pontos percentuais', 'envolvem o sistema de votação', 'é falso o conteúdo atribuindo favorecimento a lula na totalização dos votos nas eleições do 1º turno no brasil', 'atingir o percentual de 1% da apuração, lula foi ultrapassado por bolsonaro,', 'manteve na primeira posição até o percentual de 70% da totalização', ', no final, a apuração é concluída com o número de votos determinado pelos eleitores para cada candidato', '" outro exemplo citado por ele é no', 'duas cidades: "', 'apuração para o professor bruno de carvalho albertini, da epusp, o vídeo em questão é falacioso', 'de fato, qualquer pessoa pode fotografar os boletins de urnas físicos impressos pela urna']</t>
+          <t>publicidadeoutras, publicidade, votação, checado, publicação</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>['publicidade publicidade esta checagem foi produzida por jornalistas da coalizão do comprova', 'sua computação ocorreu', 'compartilhou a publicação disse não ter o contato de flávio peres', 'recebeu o vídeo por um grupo do whatsapp', 'a equipe do comprova procurou matérias jornalísticas de cobertura das eleições', 'transmitiram o resultado do pleito em tempo real para comparar com os números apresentados no vídeo alvo da checagem', 'ocorre dentro das urnas no encerramento da votação da seção eleitoral', 'o autor do vídeo checado faz um recorte dos dados', 'o petista tinha 51,18%', '73%', 'depois, a apuração aparece em 12%', 'urna está sendo contada primeiro', 'o resultado acontece a partir do total de votos já registrados antes pelo eleitor', 'em 2021, o órgão desmentiu o boato de', 'as urnas eletrônicas teriam sido fraudadas nas eleições de 2014', ', na apuração de votos do 1º turno deste ano, o candidato bolsonaro ficou à frente de lula até 70% do total de urnas apuradas', 'há oito anos, dilma ultrapassou aécio', 'a totalização chegou a 88,9%', 'divulgou o tse na reportagem, naquele ano, técnicos do psdb', 'do tribunal analisaram a curva de desempenho dos candidatos aécio', 'ela demonstrava a concorrência acirrada na eleição de 2014, em', 'durante muito tempo os votos eram disputados um a um', 'os votos apurados vinham predominantemente dos estados das regiões sul', 'sudeste, onde aécio neves venceu, a apuração indicava a vitória parcial do candidato tucano', 'começaram a ser computados os votos dos estados do norte', 'do nordeste, onde dilma rousseff obteve ampla vitória, esse placar foi mudando até', 'consolidou numa vitória apertada da petista, com uma diferença de', '3,28 pontos percentuais', 'envolvem o sistema de votação', 'é falso o conteúdo atribuindo favorecimento a lula na totalização dos votos nas eleições do 1º turno no brasil', 'atingir o percentual de 1% da apuração, lula foi ultrapassado por bolsonaro,', 'manteve na primeira posição até o percentual de 70% da totalização', ', no final, a apuração é concluída com o número de votos determinado pelos eleitores para cada candidato', '" outro exemplo citado por ele é no', 'duas cidades: "', 'apuração para o professor bruno de carvalho albertini, da epusp, o vídeo em questão é falacioso', 'de fato, qualquer pessoa pode fotografar os boletins de urnas físicos impressos pela urna', 'geografia uma apuração do comprova em julho cita uma reportagem do tse em', 'aborda o andamento da totalização dos votos de acordo com a posição geográfica das cidades']</t>
         </is>
       </c>
     </row>
